--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-529782.9483282925</v>
+        <v>-532680.3765859292</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.21008304703077</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.959070404000524</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>13.33861851436415</v>
       </c>
       <c r="G2" t="n">
-        <v>13.8871982085107</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.38369583986261</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>18.21008304703077</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.4983113685839572</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.54112977924264</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,22 +780,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="R3" t="n">
-        <v>18.21008304703077</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="U3" t="n">
-        <v>18.21008304703077</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>16.0394411478247</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -902,25 +902,25 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>13.70732065777799</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
-        <v>17.14684397594775</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>4.19631280932926</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>13.91305285972276</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>12.84193026251983</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>49.79500702712463</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>16.44799022605971</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
     </row>
     <row r="7">
@@ -1136,17 +1136,17 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.24358941829504</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>81.30196747731284</v>
+      </c>
+      <c r="G8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G8" t="n">
-        <v>13.38870434448781</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
         <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>65.01432190606367</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>112.1126601249237</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.6065387483043</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>341.0298525897911</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>105.0627689840763</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>146.1579437348919</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,19 +1613,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>121.7011081402351</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.592917841534</v>
+        <v>126.2214518312766</v>
       </c>
       <c r="H14" t="n">
         <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389948</v>
+        <v>28.90056660389945</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740603</v>
+        <v>101.6950537740602</v>
       </c>
       <c r="T14" t="n">
         <v>202.4786139429426</v>
@@ -1704,7 +1704,7 @@
         <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853822</v>
+        <v>12.76005920853821</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>51.94547658805823</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434403</v>
+        <v>76.20886967215763</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.30038209396096</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295185</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1901,7 +1901,7 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179194</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
         <v>317.6307663651991</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
         <v>113.8108456707173</v>
@@ -2017,10 +2017,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139452824</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221587</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
         <v>186.4872700401421</v>
@@ -2065,7 +2065,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998809</v>
@@ -2293,7 +2293,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112669</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187939</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684693</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200481</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894978</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>378.55420402475</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295196</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545726</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645691</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179212</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651993</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262554</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038399</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188936</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297236</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464142</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659987</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943508</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707176</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053443</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453035</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221598</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424836</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401423</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612654</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716143</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843773</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368235</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998811</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2953,7 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E31" t="n">
         <v>114.8237602943552</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295169</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453003</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W35" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X35" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464138</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453022</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221587</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.3201464229516</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545722</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W38" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X38" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139452995</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221561</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368231</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295169</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
         <v>219.3243840645688</v>
@@ -3901,7 +3901,7 @@
         <v>135.6366187464138</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E43" t="n">
         <v>114.8237602943552</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442996</v>
       </c>
       <c r="I43" t="n">
-        <v>54.5262913945315</v>
+        <v>54.52629139453162</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221573</v>
+        <v>42.04747230221571</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612651</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545723</v>
@@ -4138,7 +4138,7 @@
         <v>135.6366187464138</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E46" t="n">
         <v>114.8237602943552</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442996</v>
       </c>
       <c r="I46" t="n">
-        <v>54.5262913945313</v>
+        <v>54.52629139453005</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221572</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V46" t="n">
         <v>220.527440971614</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.43894235509848</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="C2" t="n">
-        <v>27.43894235509848</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="D2" t="n">
-        <v>27.43894235509848</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="E2" t="n">
-        <v>22.42978033085553</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="F2" t="n">
-        <v>15.48427958165206</v>
+        <v>32.35961360022277</v>
       </c>
       <c r="G2" t="n">
-        <v>1.456806643762462</v>
+        <v>13.96559032039154</v>
       </c>
       <c r="H2" t="n">
-        <v>1.456806643762462</v>
+        <v>13.96559032039154</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762462</v>
+        <v>13.96559032039154</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456806643762462</v>
+        <v>13.96559032039154</v>
       </c>
       <c r="K2" t="n">
-        <v>1.456806643762462</v>
+        <v>13.96559032039154</v>
       </c>
       <c r="L2" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="M2" t="n">
-        <v>19.48478886032293</v>
+        <v>19.48478886032523</v>
       </c>
       <c r="N2" t="n">
-        <v>37.51277107688339</v>
+        <v>37.51277107688782</v>
       </c>
       <c r="O2" t="n">
-        <v>45.83296563492755</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="P2" t="n">
-        <v>45.83296563492755</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.83296563492755</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="R2" t="n">
-        <v>45.83296563492755</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="S2" t="n">
-        <v>45.83296563492755</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="T2" t="n">
-        <v>45.83296563492755</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="U2" t="n">
-        <v>45.83296563492755</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="V2" t="n">
-        <v>45.83296563492755</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="W2" t="n">
-        <v>45.83296563492755</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="X2" t="n">
-        <v>45.83296563492755</v>
+        <v>45.83296563493403</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.83296563492755</v>
+        <v>45.83296563493403</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.85082992359153</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="C3" t="n">
-        <v>19.85082992359153</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="D3" t="n">
-        <v>19.85082992359153</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="E3" t="n">
-        <v>1.456806643762462</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="F3" t="n">
-        <v>1.456806643762462</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="G3" t="n">
-        <v>1.456806643762462</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="H3" t="n">
-        <v>1.456806643762462</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456806643762462</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="J3" t="n">
-        <v>1.456806643762462</v>
+        <v>17.15491753188651</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032293</v>
+        <v>19.48478886032523</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688339</v>
+        <v>37.51277107688782</v>
       </c>
       <c r="N3" t="n">
-        <v>55.54075329344386</v>
+        <v>55.54075329345042</v>
       </c>
       <c r="O3" t="n">
-        <v>72.84033218812309</v>
+        <v>72.8403321881317</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812309</v>
+        <v>72.8403321881317</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218812309</v>
+        <v>54.44630890830046</v>
       </c>
       <c r="R3" t="n">
-        <v>54.44630890829402</v>
+        <v>36.05228562846922</v>
       </c>
       <c r="S3" t="n">
-        <v>54.44630890829402</v>
+        <v>36.05228562846922</v>
       </c>
       <c r="T3" t="n">
-        <v>54.44630890829402</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="U3" t="n">
-        <v>36.05228562846496</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="V3" t="n">
-        <v>19.85082992359153</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="W3" t="n">
-        <v>19.85082992359153</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="X3" t="n">
-        <v>19.85082992359153</v>
+        <v>17.65826234863798</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.85082992359153</v>
+        <v>17.65826234863798</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="D4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="E4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="G4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="M4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="N4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="O4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="P4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="R4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="S4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="T4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="U4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="V4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="W4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="X4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.456806643762462</v>
+        <v>1.456806643762634</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142.6908979658936</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="C5" t="n">
-        <v>142.6908979658936</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="D5" t="n">
-        <v>142.6908979658936</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="E5" t="n">
-        <v>92.39291106980816</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="F5" t="n">
-        <v>85.44741032060469</v>
+        <v>100.3794592053036</v>
       </c>
       <c r="G5" t="n">
-        <v>71.6016318784047</v>
+        <v>50.08147230921817</v>
       </c>
       <c r="H5" t="n">
-        <v>71.6016318784047</v>
+        <v>50.08147230921817</v>
       </c>
       <c r="I5" t="n">
-        <v>21.30364498231921</v>
+        <v>50.08147230921817</v>
       </c>
       <c r="J5" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="K5" t="n">
         <v>3.98360056216997</v>
@@ -4583,34 +4583,34 @@
         <v>156.7444867130883</v>
       </c>
       <c r="P5" t="n">
-        <v>156.7444867130883</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="Q5" t="n">
-        <v>156.7444867130883</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="R5" t="n">
-        <v>156.7444867130883</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="S5" t="n">
-        <v>156.7444867130883</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="T5" t="n">
-        <v>142.6908979658936</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="U5" t="n">
-        <v>142.6908979658936</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="V5" t="n">
-        <v>142.6908979658936</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="W5" t="n">
-        <v>142.6908979658936</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="X5" t="n">
-        <v>142.6908979658936</v>
+        <v>150.6774461013891</v>
       </c>
       <c r="Y5" t="n">
-        <v>142.6908979658936</v>
+        <v>150.6774461013891</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.95524729198798</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="C6" t="n">
-        <v>16.95524729198798</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="D6" t="n">
-        <v>16.95524729198798</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="E6" t="n">
-        <v>16.95524729198798</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="F6" t="n">
-        <v>16.95524729198798</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="G6" t="n">
-        <v>16.95524729198798</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="H6" t="n">
-        <v>16.95524729198798</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="I6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4653,7 +4653,7 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>99.60319867417761</v>
+        <v>71.84601783796413</v>
       </c>
       <c r="N6" t="n">
         <v>121.1430747948175</v>
@@ -4671,25 +4671,25 @@
         <v>167.8492079802444</v>
       </c>
       <c r="S6" t="n">
+        <v>167.8492079802444</v>
+      </c>
+      <c r="T6" t="n">
+        <v>167.8492079802444</v>
+      </c>
+      <c r="U6" t="n">
+        <v>167.8492079802444</v>
+      </c>
+      <c r="V6" t="n">
         <v>117.551221084159</v>
       </c>
-      <c r="T6" t="n">
+      <c r="W6" t="n">
         <v>117.551221084159</v>
       </c>
-      <c r="U6" t="n">
-        <v>67.25323418807346</v>
-      </c>
-      <c r="V6" t="n">
-        <v>16.95524729198798</v>
-      </c>
-      <c r="W6" t="n">
-        <v>16.95524729198798</v>
-      </c>
       <c r="X6" t="n">
-        <v>16.95524729198798</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.95524729198798</v>
+        <v>50.63910264659903</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>238.8892144558706</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="C8" t="n">
-        <v>238.8892144558706</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="D8" t="n">
-        <v>142.6835685788049</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43845734150828</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="F8" t="n">
-        <v>22.49295659230481</v>
+        <v>140.996681329578</v>
       </c>
       <c r="G8" t="n">
-        <v>8.969012809993892</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="H8" t="n">
-        <v>8.969012809993892</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993892</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="J8" t="n">
         <v>8.969012809993892</v>
@@ -4808,10 +4808,10 @@
         <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083929</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N8" t="n">
         <v>313.4124509320674</v>
@@ -4823,31 +4823,31 @@
         <v>448.4506404996946</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996946</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="R8" t="n">
-        <v>352.1343256931672</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="S8" t="n">
-        <v>352.1343256931672</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="T8" t="n">
-        <v>352.1343256931672</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="U8" t="n">
-        <v>352.1343256931672</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="V8" t="n">
-        <v>352.1343256931672</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="W8" t="n">
-        <v>352.1343256931672</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="X8" t="n">
-        <v>238.8892144558706</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="Y8" t="n">
-        <v>238.8892144558706</v>
+        <v>223.1198808016112</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221.9604180251014</v>
+        <v>242.93062859105</v>
       </c>
       <c r="C9" t="n">
-        <v>122.2141240472905</v>
+        <v>242.93062859105</v>
       </c>
       <c r="D9" t="n">
-        <v>122.2141240472905</v>
+        <v>242.93062859105</v>
       </c>
       <c r="E9" t="n">
-        <v>8.969012809993892</v>
+        <v>242.93062859105</v>
       </c>
       <c r="F9" t="n">
-        <v>8.969012809993892</v>
+        <v>242.93062859105</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993892</v>
+        <v>177.2595963627029</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993892</v>
+        <v>73.8809971161856</v>
       </c>
       <c r="I9" t="n">
         <v>8.969012809993892</v>
@@ -4884,10 +4884,10 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993892</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387162</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
         <v>176.439439640395</v>
@@ -4902,31 +4902,31 @@
         <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996946</v>
+        <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996946</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="S9" t="n">
-        <v>335.205529262398</v>
+        <v>242.93062859105</v>
       </c>
       <c r="T9" t="n">
-        <v>335.205529262398</v>
+        <v>242.93062859105</v>
       </c>
       <c r="U9" t="n">
-        <v>335.205529262398</v>
+        <v>242.93062859105</v>
       </c>
       <c r="V9" t="n">
-        <v>335.205529262398</v>
+        <v>242.93062859105</v>
       </c>
       <c r="W9" t="n">
-        <v>335.205529262398</v>
+        <v>242.93062859105</v>
       </c>
       <c r="X9" t="n">
-        <v>335.205529262398</v>
+        <v>242.93062859105</v>
       </c>
       <c r="Y9" t="n">
-        <v>335.205529262398</v>
+        <v>242.93062859105</v>
       </c>
     </row>
     <row r="10">
@@ -4975,13 +4975,13 @@
         <v>12.63101027343186</v>
       </c>
       <c r="O10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="R10" t="n">
         <v>8.969012809993892</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1519.109083729354</v>
+        <v>1964.273285499503</v>
       </c>
       <c r="C11" t="n">
-        <v>1150.146566788942</v>
+        <v>1595.310768559092</v>
       </c>
       <c r="D11" t="n">
-        <v>791.8808681821918</v>
+        <v>1237.045069952341</v>
       </c>
       <c r="E11" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450755</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.50962791956</v>
+        <v>2350.873125563625</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.4676803942472</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C13" t="n">
-        <v>626.3436713194226</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D13" t="n">
-        <v>626.3436713194226</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E13" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5206,7 +5206,7 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1557.893646057118</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368017</v>
+        <v>1303.209157851231</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.908724368017</v>
+        <v>1013.791987814271</v>
       </c>
       <c r="X13" t="n">
-        <v>1134.908724368017</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y13" t="n">
-        <v>914.1161452244869</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1662.80417960852</v>
+        <v>2049.404019672642</v>
       </c>
       <c r="C14" t="n">
-        <v>1293.841662668108</v>
+        <v>1680.441502732231</v>
       </c>
       <c r="D14" t="n">
-        <v>935.5759640613579</v>
+        <v>1322.17580412548</v>
       </c>
       <c r="E14" t="n">
-        <v>812.6455517984944</v>
+        <v>936.3875515272359</v>
       </c>
       <c r="F14" t="n">
-        <v>812.6455517984944</v>
+        <v>525.4016467376283</v>
       </c>
       <c r="G14" t="n">
-        <v>397.9052307464399</v>
+        <v>397.9052307464398</v>
       </c>
       <c r="H14" t="n">
-        <v>103.7230475307834</v>
+        <v>103.7230475307833</v>
       </c>
       <c r="I14" t="n">
         <v>74.53055601169297</v>
@@ -5288,13 +5288,13 @@
         <v>1759.358462275286</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.22057923539</v>
+        <v>2364.220579235391</v>
       </c>
       <c r="O14" t="n">
         <v>2922.039463163073</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140403</v>
+        <v>3363.623974140402</v>
       </c>
       <c r="Q14" t="n">
         <v>3647.062805049512</v>
@@ -5315,7 +5315,7 @@
         <v>3165.777765179648</v>
       </c>
       <c r="W14" t="n">
-        <v>2813.009109909533</v>
+        <v>2813.009109909534</v>
       </c>
       <c r="X14" t="n">
         <v>2439.543351648454</v>
@@ -5349,25 +5349,25 @@
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718612</v>
+        <v>87.41950470718611</v>
       </c>
       <c r="I15" t="n">
         <v>74.53055601169297</v>
       </c>
       <c r="J15" t="n">
-        <v>74.53055601169297</v>
+        <v>184.6629209807617</v>
       </c>
       <c r="K15" t="n">
-        <v>340.9191340937598</v>
+        <v>451.0514990628286</v>
       </c>
       <c r="L15" t="n">
-        <v>745.4339928726399</v>
+        <v>574.6261033188192</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.840621506596</v>
+        <v>1066.032731952775</v>
       </c>
       <c r="N15" t="n">
-        <v>1755.66196629018</v>
+        <v>1584.85407673636</v>
       </c>
       <c r="O15" t="n">
         <v>2037.254452037593</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.4065679387236</v>
+        <v>760.9622582946499</v>
       </c>
       <c r="C16" t="n">
-        <v>684.4065679387236</v>
+        <v>760.9622582946499</v>
       </c>
       <c r="D16" t="n">
-        <v>534.2899285263878</v>
+        <v>610.8456188823142</v>
       </c>
       <c r="E16" t="n">
-        <v>534.2899285263878</v>
+        <v>610.8456188823142</v>
       </c>
       <c r="F16" t="n">
-        <v>387.3999810284774</v>
+        <v>463.9556713844038</v>
       </c>
       <c r="G16" t="n">
-        <v>219.8461260848266</v>
+        <v>296.401816440753</v>
       </c>
       <c r="H16" t="n">
-        <v>167.3759477130506</v>
+        <v>151.5092122461957</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169297</v>
+        <v>74.53055601169298</v>
       </c>
       <c r="J16" t="n">
         <v>129.9765865525471</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923171</v>
+        <v>350.9282837923172</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553104</v>
+        <v>689.1968198553105</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479732</v>
+        <v>1056.242685479733</v>
       </c>
       <c r="N16" t="n">
         <v>1419.995637229307</v>
@@ -5455,31 +5455,31 @@
         <v>1990.231654135873</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389594</v>
+        <v>2080.068878389595</v>
       </c>
       <c r="R16" t="n">
-        <v>2080.068878389594</v>
+        <v>1996.937179304786</v>
       </c>
       <c r="S16" t="n">
-        <v>2080.068878389594</v>
+        <v>1996.937179304786</v>
       </c>
       <c r="T16" t="n">
-        <v>1858.938821053358</v>
+        <v>1775.80712196855</v>
       </c>
       <c r="U16" t="n">
-        <v>1858.938821053358</v>
+        <v>1486.712381367737</v>
       </c>
       <c r="V16" t="n">
-        <v>1604.254332847471</v>
+        <v>1232.02789316185</v>
       </c>
       <c r="W16" t="n">
-        <v>1314.837162810511</v>
+        <v>942.6107231248897</v>
       </c>
       <c r="X16" t="n">
-        <v>1086.847611912493</v>
+        <v>942.6107231248897</v>
       </c>
       <c r="Y16" t="n">
-        <v>866.0550327689631</v>
+        <v>942.6107231248897</v>
       </c>
     </row>
     <row r="17">
@@ -5501,52 +5501,52 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
         <v>3496.71823738206</v>
@@ -5589,31 +5589,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>354.3572725988149</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>808.1559021931422</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1357.074366803431</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502083</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C19" t="n">
-        <v>735.85573414777</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609029</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039784</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315367</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749425</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897912</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K19" t="n">
         <v>459.528702044361</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
         <v>2087.878830313935</v>
@@ -5692,7 +5692,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352542</v>
@@ -5701,22 +5701,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
         <v>1458.093420216582</v>
@@ -5738,7 +5738,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5750,22 +5750,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P20" t="n">
         <v>3813.656640612703</v>
@@ -5777,16 +5777,16 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
@@ -5844,13 +5844,13 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>2143.777656741113</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F22" t="n">
         <v>386.7245456315385</v>
@@ -5917,16 +5917,16 @@
         <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597205</v>
@@ -5938,7 +5938,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
         <v>1887.747186237501</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162841</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511632</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511632</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.06785023329</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767232</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755816</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924551</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283569</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400165</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382062</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437417</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.8957634217718</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511632</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835859</v>
+        <v>216.5575109835862</v>
       </c>
       <c r="K24" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334509</v>
       </c>
       <c r="L24" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277785</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502071</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477685</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609012</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039813</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315393</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897934</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511632</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6166,31 +6166,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645589</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.44446907304</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
         <v>1784.429621497863</v>
@@ -6209,13 +6209,13 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796662</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6230,7 +6230,7 @@
         <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
         <v>2001.213713746739</v>
@@ -6263,13 +6263,13 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X26" t="n">
         <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6309,13 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>519.5985603334502</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1068.517024943739</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.372372870142</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O27" t="n">
         <v>1934.929714729833</v>
@@ -6361,55 +6361,55 @@
         <v>872.8624197502103</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477721</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D28" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
         <v>2144.901839127668</v>
@@ -6418,10 +6418,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073043</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6449,7 +6449,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
@@ -6461,25 +6461,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
         <v>4142.907144767228</v>
@@ -6491,22 +6491,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6601,13 +6601,13 @@
         <v>735.8557341477715</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
         <v>251.2943450749443</v>
@@ -6619,19 +6619,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313935</v>
@@ -6640,13 +6640,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127668</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511622</v>
@@ -6725,25 +6725,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9018152139996</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>897.700444808327</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1446.618909418616</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>2024.474257345018</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796659</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162824</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511481</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7026,16 +7026,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.626315333739</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,64 +7069,64 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C37" t="n">
         <v>735.8557341477724</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039809</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315392</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042808</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443635</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902808</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313938</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357084</v>
@@ -7154,28 +7154,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796684</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
@@ -7184,28 +7184,28 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
         <v>3496.71823738206</v>
@@ -7245,10 +7245,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
@@ -7257,22 +7257,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>808.1559021931415</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1357.074366803431</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749442</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443566</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902742</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040889</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354969</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313932</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028685</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597202</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352539</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966193</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127666</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237499</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357081</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645589</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796659</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162824</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511481</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609056</v>
+        <v>617.6685920609061</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039811</v>
+        <v>501.6849958039817</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315395</v>
+        <v>386.7245456315398</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749457</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897945</v>
+        <v>140.0574709897946</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.174278704278</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
         <v>2333.272818966196</v>
@@ -7600,7 +7600,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357084</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254982</v>
@@ -7631,13 +7631,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796673</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7646,28 +7646,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
         <v>4249.020448755811</v>
@@ -7688,10 +7688,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>688.8525027970471</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.626315333739</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609056</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039812</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315395</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749455</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897943</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042765</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443593</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902769</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -9559,7 +9559,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446523</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272325</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -10522,7 +10522,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>135.006563314039</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272581</v>
       </c>
       <c r="K37" t="n">
         <v>106.7437663446525</v>
@@ -10981,7 +10981,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446476</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272128</v>
       </c>
       <c r="K46" t="n">
         <v>106.7437663446525</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.1273029151763</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>40.90051748247071</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>62.18405211455153</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>140.0538944707209</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>260.2292619320267</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>284.3714660102573</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>91.4982015645536</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>15.70806811218638</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396098</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>187.1986443782762</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2037931948048</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.637801005927031e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4.727098712464794e-12</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.309263891220326e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.435296326235402e-12</v>
+        <v>-1.570299446029821e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.238049662788398e-12</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524992</v>
@@ -26329,31 +26329,31 @@
         <v>287364.6194524994</v>
       </c>
       <c r="H2" t="n">
+        <v>287364.6194524994</v>
+      </c>
+      <c r="I2" t="n">
+        <v>287364.6194524989</v>
+      </c>
+      <c r="J2" t="n">
         <v>287364.6194524996</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>287364.6194524996</v>
+      </c>
+      <c r="L2" t="n">
+        <v>287364.6194524994</v>
+      </c>
+      <c r="M2" t="n">
+        <v>287364.6194524993</v>
+      </c>
+      <c r="N2" t="n">
         <v>287364.6194524997</v>
       </c>
-      <c r="J2" t="n">
-        <v>287364.6194524995</v>
-      </c>
-      <c r="K2" t="n">
-        <v>287364.6194524995</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>287364.6194524992</v>
+      </c>
+      <c r="P2" t="n">
         <v>287364.6194524996</v>
-      </c>
-      <c r="M2" t="n">
-        <v>287364.6194524994</v>
-      </c>
-      <c r="N2" t="n">
-        <v>287364.6194524993</v>
-      </c>
-      <c r="O2" t="n">
-        <v>287364.6194524993</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.6194524994</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321806</v>
+        <v>345405.5970321843</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876682</v>
+        <v>50948.63134876333</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654293</v>
+        <v>93369.88484654315</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975334</v>
+        <v>143964.0818975335</v>
       </c>
       <c r="H3" t="n">
-        <v>2.082076662190957e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.680912403884577e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757342</v>
+        <v>4764.558968757106</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908795</v>
+        <v>8128.948714908241</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194625</v>
+        <v>41060.19902194619</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383014</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613178</v>
+        <v>24549.15438613158</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875957</v>
+        <v>31434.59456875973</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348982.9265318208</v>
+        <v>348982.9265318197</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26427,37 +26427,37 @@
         <v>14649.95482218994</v>
       </c>
       <c r="F4" t="n">
-        <v>14701.82240068822</v>
+        <v>14701.82240068823</v>
       </c>
       <c r="G4" t="n">
-        <v>45839.31483610846</v>
+        <v>45839.31483610848</v>
       </c>
       <c r="H4" t="n">
-        <v>45839.31483610849</v>
+        <v>45839.3148361085</v>
       </c>
       <c r="I4" t="n">
+        <v>45839.31483610823</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45839.31483610847</v>
+      </c>
+      <c r="K4" t="n">
         <v>45839.3148361085</v>
       </c>
-      <c r="J4" t="n">
-        <v>45839.31483610852</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45839.31483610853</v>
-      </c>
       <c r="L4" t="n">
-        <v>45839.31483610856</v>
+        <v>45839.31483610848</v>
       </c>
       <c r="M4" t="n">
-        <v>45839.31483610861</v>
+        <v>45839.31483610844</v>
       </c>
       <c r="N4" t="n">
+        <v>45839.3148361086</v>
+      </c>
+      <c r="O4" t="n">
+        <v>45839.31483610864</v>
+      </c>
+      <c r="P4" t="n">
         <v>45839.31483610855</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45839.31483610855</v>
-      </c>
-      <c r="P4" t="n">
-        <v>45839.31483610856</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425668</v>
+        <v>42410.88882425688</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26482,31 +26482,31 @@
         <v>82183.39720390702</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95106.43410215534</v>
+      </c>
+      <c r="J5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="J5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="K5" t="n">
-        <v>95106.43410215528</v>
-      </c>
       <c r="L5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215528</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449434.7929357589</v>
+        <v>-449434.7929357618</v>
       </c>
       <c r="C6" t="n">
-        <v>-142147.2373341804</v>
+        <v>-142147.2373341771</v>
       </c>
       <c r="D6" t="n">
         <v>-155971.7603646957</v>
       </c>
       <c r="E6" t="n">
-        <v>-558039.1837468925</v>
+        <v>-558386.8026766985</v>
       </c>
       <c r="F6" t="n">
-        <v>61321.3760467876</v>
+        <v>61065.74648282622</v>
       </c>
       <c r="G6" t="n">
-        <v>2454.788616702281</v>
+        <v>2454.788616702106</v>
       </c>
       <c r="H6" t="n">
         <v>146418.8705142356</v>
       </c>
       <c r="I6" t="n">
-        <v>146418.8705142359</v>
+        <v>146418.8705142345</v>
       </c>
       <c r="J6" t="n">
-        <v>141654.3115454784</v>
+        <v>141654.3115454787</v>
       </c>
       <c r="K6" t="n">
-        <v>138289.9217993269</v>
+        <v>138289.9217993276</v>
       </c>
       <c r="L6" t="n">
         <v>105358.6714922895</v>
       </c>
       <c r="M6" t="n">
-        <v>-32830.77442406591</v>
+        <v>-32830.77442406583</v>
       </c>
       <c r="N6" t="n">
-        <v>121869.7161281037</v>
+        <v>121869.7161281042</v>
       </c>
       <c r="O6" t="n">
-        <v>114984.275945476</v>
+        <v>114984.2759454756</v>
       </c>
       <c r="P6" t="n">
-        <v>146418.8705142356</v>
+        <v>146418.8705142357</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221368</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="K2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="I2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221397</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221395</v>
-      </c>
       <c r="L2" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="O2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228079</v>
+        <v>352.115402522811</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808273</v>
+        <v>1171.567643808274</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26756,7 +26756,7 @@
         <v>1278.159870620123</v>
       </c>
       <c r="I3" t="n">
-        <v>1278.159870620123</v>
+        <v>1278.159870620124</v>
       </c>
       <c r="J3" t="n">
         <v>1278.159870620123</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703077</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,7 +26796,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>931.6319501461621</v>
@@ -26808,7 +26808,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="I4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188954</v>
       </c>
       <c r="J4" t="n">
         <v>1062.255112188953</v>
@@ -26820,13 +26820,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
+        <v>1062.255112188953</v>
+      </c>
+      <c r="N4" t="n">
         <v>1062.255112188952</v>
       </c>
-      <c r="N4" t="n">
-        <v>1062.255112188953</v>
-      </c>
       <c r="O4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-2.735589532676386e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>2.415845301584341e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-7.815970093361102e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228079</v>
+        <v>352.115402522811</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074476012</v>
+        <v>44.74454074475705</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
@@ -26969,19 +26969,19 @@
         <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497519</v>
+        <v>81.79094321497541</v>
       </c>
       <c r="G3" t="n">
         <v>106.5922268118491</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,49 +27009,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703077</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009385</v>
+        <v>31.5849239800917</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438693</v>
+        <v>100.2304947438694</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427905</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703077</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009385</v>
+        <v>31.5849239800917</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773688</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438697</v>
+        <v>100.2304947438689</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427905</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>2.415845301584341e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703077</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009385</v>
+        <v>31.5849239800917</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438693</v>
+        <v>100.2304947438694</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427905</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364.5237586164498</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,28 +27385,28 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>376.9712996682613</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>393.5374272273473</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>395.6771151614778</v>
       </c>
       <c r="H2" t="n">
-        <v>324.9779101918005</v>
+        <v>324.9779101918004</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9033104517705</v>
+        <v>155.90331045177</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107754</v>
+        <v>60.90377530107649</v>
       </c>
       <c r="K2" t="n">
-        <v>40.02794296996294</v>
+        <v>40.02794296996137</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986454</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855424</v>
+        <v>27.67667403855245</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621886</v>
+        <v>69.44336957621752</v>
       </c>
       <c r="R2" t="n">
-        <v>126.6666668443901</v>
+        <v>126.6666668443893</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365429</v>
+        <v>176.7634676365426</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493833</v>
+        <v>216.8993262493832</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>139.4349974083702</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,13 +27476,13 @@
         <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>73.44590915279204</v>
+        <v>73.44590915279181</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587607</v>
+        <v>54.78348618729149</v>
       </c>
       <c r="K3" t="n">
-        <v>15.5411297792437</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,22 +27500,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318957054</v>
+        <v>25.09276014253678</v>
       </c>
       <c r="R3" t="n">
-        <v>80.44540546303818</v>
+        <v>80.4454054630356</v>
       </c>
       <c r="S3" t="n">
-        <v>157.6151642200256</v>
+        <v>157.6151642200255</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1119545918173</v>
+        <v>178.9018715447843</v>
       </c>
       <c r="U3" t="n">
-        <v>207.6814713826437</v>
+        <v>225.8915544296744</v>
       </c>
       <c r="V3" t="n">
-        <v>216.7611460016006</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27555,37 +27555,37 @@
         <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199558</v>
+        <v>136.3554298199557</v>
       </c>
       <c r="J4" t="n">
-        <v>82.10359380956206</v>
+        <v>82.10359380956167</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018319</v>
+        <v>55.24219515018254</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323826</v>
+        <v>40.48311410323744</v>
       </c>
       <c r="M4" t="n">
-        <v>39.39257270660873</v>
+        <v>39.39257270660787</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988189</v>
+        <v>30.51901051988105</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406215</v>
+        <v>48.70751749406136</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728804</v>
+        <v>60.93221199728737</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.33557584850185</v>
+        <v>98.33557584850138</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545825</v>
+        <v>148.7431818545822</v>
       </c>
       <c r="S4" t="n">
-        <v>212.9509385839194</v>
+        <v>212.9509385839193</v>
       </c>
       <c r="T4" t="n">
         <v>225.2325691137615</v>
@@ -27622,25 +27622,25 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>332.1353630451372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
-        <v>99.17357415002331</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27655,10 +27655,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396252972</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>45.8223049102033</v>
       </c>
       <c r="R5" t="n">
         <v>115.3674336481769</v>
@@ -27667,7 +27667,7 @@
         <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
-        <v>202.1988594113281</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U5" t="n">
         <v>251.2180195592479</v>
@@ -27713,10 +27713,10 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>57.29035016530649</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>92.6799817290989</v>
       </c>
       <c r="S6" t="n">
-        <v>106.0324861546552</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
         <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>176.0902156279161</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
         <v>183.0055801223006</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>189.3249949774178</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>155.8876887501797</v>
       </c>
     </row>
     <row r="7">
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>259.4394522023879</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>269.8177099473381</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>325.5740782643986</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -27874,7 +27874,7 @@
         <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>165.4040387101212</v>
+        <v>53.29137858519758</v>
       </c>
       <c r="T8" t="n">
         <v>214.717169359623</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.42052352494369</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>73.95966795028299</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>45.53242033047729</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>71.30509722626716</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>30.08282103867671</v>
@@ -27974,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>40.54833922112497</v>
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>17.10165812996878</v>
+        <v>13.4762806411652</v>
       </c>
       <c r="P10" t="n">
         <v>33.88793923037925</v>
@@ -28056,7 +28056,7 @@
         <v>79.61152319847201</v>
       </c>
       <c r="R10" t="n">
-        <v>135.0636121600415</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S10" t="n">
         <v>209.0540751673406</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605483</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221368</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29536,7 +29536,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605636</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="T38" t="n">
         <v>31.61020235221412</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221412</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624352</v>
+        <v>1.415539306624365</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396665</v>
+        <v>14.49689192396678</v>
       </c>
       <c r="I2" t="n">
-        <v>54.5725791186354</v>
+        <v>54.57257911863587</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256087</v>
+        <v>120.1421292256098</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750176</v>
+        <v>180.0619080750192</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301227</v>
+        <v>223.3827191301246</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743035</v>
+        <v>248.5563162743057</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436217</v>
+        <v>247.6231466436238</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490041</v>
+        <v>238.5024483490061</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167153</v>
+        <v>203.5563217167171</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982306</v>
+        <v>152.862320298232</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974206</v>
+        <v>88.91887096974283</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970246</v>
+        <v>32.25660194970274</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748106</v>
+        <v>6.19652331474816</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299482</v>
+        <v>0.1132431445299492</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660397</v>
+        <v>0.7573802997660464</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898332</v>
+        <v>7.314699210898396</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720795</v>
+        <v>26.07647084720818</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079063</v>
+        <v>71.55582911079125</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951153</v>
+        <v>122.3003091951164</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269049</v>
+        <v>156.7644628269071</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690491</v>
+        <v>160.3441169690512</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5517951303641</v>
+        <v>149.5517951303662</v>
       </c>
       <c r="O3" t="n">
-        <v>160.070566560282</v>
+        <v>160.0705665602841</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645098</v>
+        <v>96.67893089645182</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389501</v>
+        <v>47.02401545389542</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381218</v>
+        <v>14.0680068838123</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004343</v>
+        <v>3.05277410300437</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039737</v>
+        <v>0.0498276513003978</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706372</v>
+        <v>0.6349622012706427</v>
       </c>
       <c r="H4" t="n">
-        <v>5.64539120766076</v>
+        <v>5.645391207660809</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730244</v>
+        <v>19.09504510730261</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983405</v>
+        <v>44.89182762983444</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035219</v>
+        <v>73.77106302035284</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800002</v>
+        <v>94.40156217800084</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099632</v>
+        <v>99.53321124099719</v>
       </c>
       <c r="N4" t="n">
-        <v>97.1665339453513</v>
+        <v>97.16653394535214</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778064</v>
+        <v>89.74902095778143</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205185958</v>
+        <v>76.79579205186025</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.169425780944</v>
+        <v>53.16942578094446</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258701</v>
+        <v>28.55020952258726</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305283</v>
+        <v>11.06565945305292</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314519995</v>
+        <v>2.713020314520018</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748934</v>
+        <v>0.03463430188748964</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31373,10 +31373,10 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>191.9290409491429</v>
+        <v>163.8914845489273</v>
       </c>
       <c r="N6" t="n">
-        <v>153.0991627102423</v>
+        <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
@@ -31604,13 +31604,13 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>227.4909302215369</v>
+        <v>199.9629954989595</v>
       </c>
       <c r="N9" t="n">
         <v>243.454372208257</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601096</v>
+        <v>4.709819673601097</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226724</v>
+        <v>48.23444073226725</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665064</v>
+        <v>181.5753229665065</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223014</v>
+        <v>399.7400575223015</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058359</v>
+        <v>599.106724305836</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418056</v>
+        <v>743.2448681418057</v>
       </c>
       <c r="M14" t="n">
-        <v>827.003123762209</v>
+        <v>827.0031237622092</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098282</v>
+        <v>840.3848989098284</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304573</v>
+        <v>793.5516295304574</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384302</v>
+        <v>677.2779563384303</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775907</v>
+        <v>508.6075392775908</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718451</v>
+        <v>295.8532100718452</v>
       </c>
       <c r="S14" t="n">
         <v>107.3250158121851</v>
@@ -32072,37 +32072,37 @@
         <v>24.33765992137565</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146178</v>
+        <v>86.76232079146179</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>238.0824397667361</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744265</v>
+        <v>406.9208107744266</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332885</v>
+        <v>263.3772123616829</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755089</v>
+        <v>638.5043658755091</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111964</v>
+        <v>655.4036765111965</v>
       </c>
       <c r="O15" t="n">
-        <v>427.0330987347605</v>
+        <v>599.5663205062965</v>
       </c>
       <c r="P15" t="n">
-        <v>481.204830906836</v>
+        <v>481.2048309068361</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999622</v>
+        <v>321.6726858999623</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762297</v>
+        <v>46.80744312762298</v>
       </c>
       <c r="T15" t="n">
         <v>10.1572704213189</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244427</v>
+        <v>2.112662964244428</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482774</v>
+        <v>18.78349435482775</v>
       </c>
       <c r="I16" t="n">
         <v>63.53353714291426</v>
@@ -32163,10 +32163,10 @@
         <v>314.0953647023034</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587878</v>
+        <v>331.1695226587879</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102406</v>
+        <v>323.2950516102407</v>
       </c>
       <c r="O16" t="n">
         <v>298.6153069824761</v>
@@ -32178,13 +32178,13 @@
         <v>176.9067142150493</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320851</v>
+        <v>94.99300928320852</v>
       </c>
       <c r="S16" t="n">
         <v>36.81795365869606</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408005</v>
+        <v>9.026832665408007</v>
       </c>
       <c r="U16" t="n">
         <v>0.1152361616860598</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32306,37 +32306,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>277.0331173735802</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
@@ -32397,31 +32397,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32564,16 +32564,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>186.643369976408</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171347</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I23" t="n">
-        <v>198.0955112043509</v>
+        <v>198.0955112043511</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383708</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171641</v>
       </c>
       <c r="L23" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869756</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654303</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117597</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565684</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829631</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972015</v>
       </c>
       <c r="R23" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734509</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537077</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533503</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781106</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115858</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247273</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155587</v>
       </c>
       <c r="M24" t="n">
-        <v>324.2686513738034</v>
+        <v>696.5971294879673</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333027</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578288</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426487001</v>
       </c>
       <c r="T24" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047346</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051426</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151668</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692048</v>
+        <v>342.672565969205</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636387</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925533</v>
+        <v>9.84811703592554</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1257206430118155</v>
+        <v>0.1257206430118156</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,16 +33029,16 @@
         <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>434.0683069289812</v>
+        <v>559.3781234260266</v>
       </c>
       <c r="P27" t="n">
         <v>524.986079689235</v>
@@ -33500,7 +33500,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>367.4821503182113</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155584</v>
@@ -33509,7 +33509,7 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578283</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33746,19 +33746,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>427.6151068264363</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33977,7 +33977,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>430.0264422644108</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879669</v>
@@ -33986,16 +33986,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34211,10 +34211,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34223,16 +34223,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34390,7 +34390,7 @@
         <v>554.8819566972011</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581568</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34451,7 +34451,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>309.5179580259316</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703077</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703077</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927317328</v>
+        <v>8.404236927319403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703077</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703077</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21008304703077</v>
+        <v>18.21008304703292</v>
       </c>
       <c r="O3" t="n">
-        <v>17.47432211583761</v>
+        <v>17.47432211583967</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
+        <v>21.75745062690899</v>
+      </c>
+      <c r="N6" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21.75745062690899</v>
       </c>
       <c r="O6" t="n">
         <v>49.79500702712463</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
         <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>85.35689629951858</v>
+        <v>57.82896157694119</v>
       </c>
       <c r="N9" t="n">
         <v>112.1126601249237</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956151</v>
+        <v>218.6941529956152</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608553</v>
+        <v>379.0168732608554</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718183</v>
+        <v>507.4784531718184</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349363</v>
+        <v>596.6568905349365</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132373</v>
+        <v>610.9718353132375</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087705</v>
+        <v>563.4534181087706</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831606</v>
+        <v>446.0449605831607</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031412</v>
+        <v>286.3018494031413</v>
       </c>
       <c r="R14" t="n">
-        <v>80.267672257713</v>
+        <v>80.26767225771306</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>111.2448131000694</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000675</v>
+        <v>269.0793718000676</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534143</v>
+        <v>124.8228325818087</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534906</v>
+        <v>496.3703319534907</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278631</v>
+        <v>524.0619644278632</v>
       </c>
       <c r="O15" t="n">
-        <v>284.436854290316</v>
+        <v>456.9700760618521</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2304234925057</v>
+        <v>347.2304234925058</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139407</v>
+        <v>181.6909118139408</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540824</v>
+        <v>56.00609145540827</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654242</v>
+        <v>223.1835325654243</v>
       </c>
       <c r="L16" t="n">
         <v>341.6853899626195</v>
@@ -35814,16 +35814,16 @@
         <v>370.7533996206284</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894692</v>
+        <v>367.4272239894693</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965157</v>
+        <v>323.2004348965158</v>
       </c>
       <c r="P16" t="n">
-        <v>252.795541776783</v>
+        <v>252.7955417767831</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335489</v>
+        <v>90.74467096335495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>139.1916783992212</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895097</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36212,16 +36212,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>44.04712553196353</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414975</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817349</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116845</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721835</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381576</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151688</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348816</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276935</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.576266822752</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440241</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449191</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.1020700503684</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356846</v>
       </c>
       <c r="M24" t="n">
-        <v>182.1346174517851</v>
+        <v>554.4630955659491</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499694</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133843</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>101.2059290193557</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>291.4720624845368</v>
+        <v>416.7818789815822</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749048</v>
@@ -36753,7 +36753,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
@@ -36832,7 +36832,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721837</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169878</v>
@@ -36990,7 +36990,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
@@ -37148,7 +37148,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>229.6407113438523</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356842</v>
@@ -37157,7 +37157,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O33" t="n">
         <v>511.5201565133839</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553038</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.392376674115752e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>255.0635279116842</v>
@@ -37394,19 +37394,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>296.273394743103</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193582</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>291.4720624845367</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37634,16 +37634,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414929</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.392376674115752e-12</v>
       </c>
       <c r="J41" t="n">
         <v>255.0635279116842</v>
@@ -37859,10 +37859,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>170.9635782460575</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193538</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
